--- a/exported_data.xlsx
+++ b/exported_data.xlsx
@@ -443,12 +443,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>fir_number</t>
+          <t>fir_no</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>item_name</t>
+          <t>seized_items</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -458,7 +458,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>crime_scene</t>
+          <t>crime_location</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -473,7 +473,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>crime_witnesses</t>
+          <t>crime_witness</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -488,57 +488,57 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>where_its_kept</t>
+          <t>where_kept</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>timee</t>
+          <t>entry_time</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>123</v>
+        <v>1003</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>FIR123456</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Knife</t>
+          <t>Guns</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>IPC456</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>School</t>
+          <t>Fatehgunj</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8/5/23</t>
+          <t>10/26/21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>20:55</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Vedant Kahar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Kevin Hirole</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>EV-546</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2023-08-05 12:46:31.925438</t>
+          <t>2024-02-07 21:54:20.077731</t>
         </is>
       </c>
     </row>
@@ -568,7 +568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,17 +584,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>fir_number</t>
+          <t>fir_no</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>item_name</t>
+          <t>seized_items</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>fsl_order_no</t>
+          <t>order_no</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -634,7 +634,69 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>timee</t>
+          <t>entry_time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1003</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>19:28</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2023-11-14</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>O7890</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>FIR123456</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Guns</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Aum Hadiyal</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2024-01-17</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>06:04</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Safwan Bakkar</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Nakli h</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2024-02-07 21:54:59.299850</t>
         </is>
       </c>
     </row>
@@ -649,7 +711,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,6 +741,94 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1003</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Checked Out to FSL</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2023-11-14</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1003</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Checkin From Fsl</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2024-01-17</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>06:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Check Out to Court</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2024-01-26</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>07:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1003</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Checkin From Court</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2024-01-24</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>05:07</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
